--- a/Basico/practice-files/Sesión 06/Encabezado y pie.xlsx
+++ b/Basico/practice-files/Sesión 06/Encabezado y pie.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jaime Rodriguez\Desktop\EXCEL 2016\_MANUAL CALCULANDO EXCEL\Archivos\Capítulo 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Basico\practice-files\Sesión 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FDC51E-80E7-426C-BDA9-E5C27072B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="45" windowWidth="12120" windowHeight="5835"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="8" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$3:$D$13</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Hoja1!$3:$3</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,9 +70,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="_ [$S/.-280A]\ * #,##0_ ;_ [$S/.-280A]\ * \-#,##0_ ;_ [$S/.-280A]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$S/.-280A]\ * #,##0_ ;_ [$S/.-280A]\ * \-#,##0_ ;_ [$S/.-280A]\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -78,50 +88,74 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="43"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -133,90 +167,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="9"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -227,27 +178,202 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_PIVOT" xfId="1"/>
+    <cellStyle name="Normal_PIVOT" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_ [$S/.-280A]\ * #,##0_ ;_ [$S/.-280A]\ * \-#,##0_ ;_ [$S/.-280A]\ * &quot;-&quot;??_ ;_ @_ "/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -260,10 +386,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{138EAE41-3E9A-4D84-840E-A5E0D8437FDD}" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="A3:D13" xr:uid="{138EAE41-3E9A-4D84-840E-A5E0D8437FDD}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{73BDB634-8E11-4042-87C2-DCBEE88B034C}" name="Trimestre" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{14A0BE75-FB53-4E07-9B48-EA829D239612}" name="Región" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{2F4256E7-1C47-4001-9EFB-76475A9B4B0D}" name="Deporte" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{ED8182AE-822B-4F4B-B105-33BE3A4396E5}" name="Ventas" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,9 +440,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -338,7 +477,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -373,7 +512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -546,182 +685,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="9">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="9">
         <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="9">
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="9">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="9">
         <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="9">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="9">
         <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="9">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="9">
         <v>2500</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="9">
         <v>3200</v>
       </c>
     </row>
@@ -730,7 +868,10 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Basico/practice-files/Sesión 06/Encabezado y pie.xlsx
+++ b/Basico/practice-files/Sesión 06/Encabezado y pie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1-Learn\Excel\Basico\practice-files\Sesión 06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7FDC51E-80E7-426C-BDA9-E5C27072B980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE71EB00-ADD0-4A51-AEA1-514C78977DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -180,17 +180,23 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -199,17 +205,28 @@
   <dxfs count="8">
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="8"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -327,37 +344,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="medium">
           <color indexed="64"/>
@@ -368,6 +354,27 @@
         <top style="medium">
           <color indexed="64"/>
         </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
@@ -387,7 +394,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{138EAE41-3E9A-4D84-840E-A5E0D8437FDD}" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{138EAE41-3E9A-4D84-840E-A5E0D8437FDD}" name="Table2" displayName="Table2" ref="A3:D13" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A3:D13" xr:uid="{138EAE41-3E9A-4D84-840E-A5E0D8437FDD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{73BDB634-8E11-4042-87C2-DCBEE88B034C}" name="Trimestre" dataDxfId="4"/>
@@ -689,177 +696,177 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="12.42578125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="12.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>5000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>9000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="5">
         <v>1500</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>2000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>3500</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>6000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>2500</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>3200</v>
       </c>
     </row>
@@ -870,6 +877,9 @@
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LMicrosoft Excel 2025&amp;R&amp;D</oddHeader>
+  </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
